--- a/New_StarChallenge/Final.xlsx
+++ b/New_StarChallenge/Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/New_StarChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3900A528-D4A2-4A43-92F8-0253DCFF83DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DACAFE-89D3-B143-9C2B-5C490C9722D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-21100" windowWidth="33600" windowHeight="18780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -993,7 +993,7 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2310,7 +2310,7 @@
   <dimension ref="A1:W132"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E132"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -7799,8 +7799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA756A6-BA2A-8741-B2F7-B02AB3EF73C4}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/New_StarChallenge/Final.xlsx
+++ b/New_StarChallenge/Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/New_StarChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1269D01B-008A-234A-9AE9-920C7DB03186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4EA949-D6EA-B548-9A0E-DBEA394DBD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="137">
   <si>
     <t>Easy</t>
   </si>
@@ -7801,7 +7801,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -11292,195 +11292,484 @@
       <c r="I124" s="28" t="s">
         <v>96</v>
       </c>
+      <c r="J124" s="29"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="29"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
+      <c r="A125" s="28">
+        <v>124</v>
+      </c>
+      <c r="B125" s="28">
+        <v>9500</v>
+      </c>
+      <c r="C125" s="28">
+        <v>6</v>
+      </c>
+      <c r="D125" s="28">
+        <v>1</v>
+      </c>
+      <c r="E125" s="28">
+        <v>3</v>
+      </c>
+      <c r="F125" s="28">
+        <v>0</v>
+      </c>
+      <c r="G125" s="28">
+        <v>6</v>
+      </c>
       <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
+      <c r="I125" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="29"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
+      <c r="A126" s="28">
+        <v>125</v>
+      </c>
+      <c r="B126" s="28">
+        <v>9620</v>
+      </c>
+      <c r="C126" s="28">
+        <v>0</v>
+      </c>
+      <c r="D126" s="28">
+        <v>2</v>
+      </c>
+      <c r="E126" s="28">
+        <v>0</v>
+      </c>
+      <c r="F126" s="28">
+        <v>2</v>
+      </c>
+      <c r="G126" s="28">
+        <v>5</v>
+      </c>
       <c r="H126" s="29"/>
-      <c r="I126" s="29"/>
+      <c r="I126" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
+      <c r="A127" s="28">
+        <v>126</v>
+      </c>
+      <c r="B127" s="28">
+        <v>9740</v>
+      </c>
+      <c r="C127" s="28">
+        <v>0</v>
+      </c>
+      <c r="D127" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E127" s="28">
+        <v>0</v>
+      </c>
+      <c r="F127" s="28">
+        <v>0</v>
+      </c>
+      <c r="G127" s="28">
+        <v>3</v>
+      </c>
       <c r="H127" s="29"/>
-      <c r="I127" s="29"/>
+      <c r="I127" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
+      <c r="A128" s="28">
+        <v>127</v>
+      </c>
+      <c r="B128" s="28">
+        <v>9860</v>
+      </c>
+      <c r="C128" s="28">
+        <v>0</v>
+      </c>
+      <c r="D128" s="28">
+        <v>2</v>
+      </c>
+      <c r="E128" s="28">
+        <v>3</v>
+      </c>
+      <c r="F128" s="28">
+        <v>0</v>
+      </c>
+      <c r="G128" s="28">
+        <v>7</v>
+      </c>
       <c r="H128" s="29"/>
-      <c r="I128" s="29"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="29"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
+      <c r="I128" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J128" s="29"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="28">
+        <v>128</v>
+      </c>
+      <c r="B129" s="28">
+        <v>9500</v>
+      </c>
+      <c r="C129" s="28">
+        <v>6</v>
+      </c>
+      <c r="D129" s="28">
+        <v>1</v>
+      </c>
+      <c r="E129" s="28">
+        <v>3</v>
+      </c>
+      <c r="F129" s="28">
+        <v>0</v>
+      </c>
+      <c r="G129" s="28">
+        <v>6</v>
+      </c>
       <c r="H129" s="29"/>
-      <c r="I129" s="29"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="29"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
+      <c r="I129" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J129" s="29"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="28">
+        <v>129</v>
+      </c>
+      <c r="B130" s="28">
+        <v>9620</v>
+      </c>
+      <c r="C130" s="28">
+        <v>0</v>
+      </c>
+      <c r="D130" s="28">
+        <v>2</v>
+      </c>
+      <c r="E130" s="28">
+        <v>0</v>
+      </c>
+      <c r="F130" s="28">
+        <v>2</v>
+      </c>
+      <c r="G130" s="28">
+        <v>5</v>
+      </c>
       <c r="H130" s="29"/>
-      <c r="I130" s="29"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
+      <c r="I130" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J130" s="29"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="28">
+        <v>130</v>
+      </c>
+      <c r="B131" s="28">
+        <v>9740</v>
+      </c>
+      <c r="C131" s="28">
+        <v>0</v>
+      </c>
+      <c r="D131" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E131" s="28">
+        <v>0</v>
+      </c>
+      <c r="F131" s="28">
+        <v>0</v>
+      </c>
+      <c r="G131" s="28">
+        <v>3</v>
+      </c>
       <c r="H131" s="29"/>
-      <c r="I131" s="29"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
+      <c r="I131" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J131" s="29"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="28">
+        <v>131</v>
+      </c>
+      <c r="B132" s="28">
+        <v>9860</v>
+      </c>
+      <c r="C132" s="28">
+        <v>0</v>
+      </c>
+      <c r="D132" s="28">
+        <v>2</v>
+      </c>
+      <c r="E132" s="28">
+        <v>3</v>
+      </c>
+      <c r="F132" s="28">
+        <v>0</v>
+      </c>
+      <c r="G132" s="28">
+        <v>7</v>
+      </c>
       <c r="H132" s="29"/>
-      <c r="I132" s="29"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
+      <c r="I132" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J132" s="29"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="28">
+        <v>132</v>
+      </c>
+      <c r="B133" s="28">
+        <v>9500</v>
+      </c>
+      <c r="C133" s="28">
+        <v>6</v>
+      </c>
+      <c r="D133" s="28">
+        <v>1</v>
+      </c>
+      <c r="E133" s="28">
+        <v>3</v>
+      </c>
+      <c r="F133" s="28">
+        <v>0</v>
+      </c>
+      <c r="G133" s="28">
+        <v>6</v>
+      </c>
       <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
+      <c r="I133" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J133" s="29"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="28">
+        <v>133</v>
+      </c>
+      <c r="B134" s="28">
+        <v>9620</v>
+      </c>
+      <c r="C134" s="28">
+        <v>0</v>
+      </c>
+      <c r="D134" s="28">
+        <v>2</v>
+      </c>
+      <c r="E134" s="28">
+        <v>0</v>
+      </c>
+      <c r="F134" s="28">
+        <v>2</v>
+      </c>
+      <c r="G134" s="28">
+        <v>5</v>
+      </c>
       <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
+      <c r="I134" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J134" s="29"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="28">
+        <v>134</v>
+      </c>
+      <c r="B135" s="28">
+        <v>9740</v>
+      </c>
+      <c r="C135" s="28">
+        <v>0</v>
+      </c>
+      <c r="D135" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E135" s="28">
+        <v>0</v>
+      </c>
+      <c r="F135" s="28">
+        <v>0</v>
+      </c>
+      <c r="G135" s="28">
+        <v>3</v>
+      </c>
       <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="29"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
+      <c r="I135" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J135" s="29"/>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="28">
+        <v>135</v>
+      </c>
+      <c r="B136" s="28">
+        <v>9860</v>
+      </c>
+      <c r="C136" s="28">
+        <v>0</v>
+      </c>
+      <c r="D136" s="28">
+        <v>2</v>
+      </c>
+      <c r="E136" s="28">
+        <v>3</v>
+      </c>
+      <c r="F136" s="28">
+        <v>0</v>
+      </c>
+      <c r="G136" s="28">
+        <v>7</v>
+      </c>
       <c r="H136" s="29"/>
-      <c r="I136" s="29"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="29"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
+      <c r="I136" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J136" s="29"/>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="28">
+        <v>136</v>
+      </c>
+      <c r="B137" s="28">
+        <v>9500</v>
+      </c>
+      <c r="C137" s="28">
+        <v>6</v>
+      </c>
+      <c r="D137" s="28">
+        <v>1</v>
+      </c>
+      <c r="E137" s="28">
+        <v>3</v>
+      </c>
+      <c r="F137" s="28">
+        <v>0</v>
+      </c>
+      <c r="G137" s="28">
+        <v>6</v>
+      </c>
       <c r="H137" s="29"/>
-      <c r="I137" s="29"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
+      <c r="I137" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J137" s="29"/>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="28">
+        <v>137</v>
+      </c>
+      <c r="B138" s="28">
+        <v>9620</v>
+      </c>
+      <c r="C138" s="28">
+        <v>0</v>
+      </c>
+      <c r="D138" s="28">
+        <v>2</v>
+      </c>
+      <c r="E138" s="28">
+        <v>0</v>
+      </c>
+      <c r="F138" s="28">
+        <v>2</v>
+      </c>
+      <c r="G138" s="28">
+        <v>5</v>
+      </c>
       <c r="H138" s="29"/>
-      <c r="I138" s="29"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
+      <c r="I138" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J138" s="29"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="28">
+        <v>138</v>
+      </c>
+      <c r="B139" s="28">
+        <v>9740</v>
+      </c>
+      <c r="C139" s="28">
+        <v>0</v>
+      </c>
+      <c r="D139" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E139" s="28">
+        <v>0</v>
+      </c>
+      <c r="F139" s="28">
+        <v>0</v>
+      </c>
+      <c r="G139" s="28">
+        <v>3</v>
+      </c>
       <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
+      <c r="I139" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J139" s="29"/>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="28">
+        <v>139</v>
+      </c>
+      <c r="B140" s="28">
+        <v>9860</v>
+      </c>
+      <c r="C140" s="28">
+        <v>0</v>
+      </c>
+      <c r="D140" s="28">
+        <v>2</v>
+      </c>
+      <c r="E140" s="28">
+        <v>3</v>
+      </c>
+      <c r="F140" s="28">
+        <v>0</v>
+      </c>
+      <c r="G140" s="28">
+        <v>7</v>
+      </c>
       <c r="H140" s="29"/>
-      <c r="I140" s="29"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="29"/>
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
+      <c r="I140" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J140" s="29"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="28">
+        <v>140</v>
+      </c>
+      <c r="B141" s="28">
+        <v>9500</v>
+      </c>
+      <c r="C141" s="28">
+        <v>6</v>
+      </c>
+      <c r="D141" s="28">
+        <v>1</v>
+      </c>
+      <c r="E141" s="28">
+        <v>3</v>
+      </c>
+      <c r="F141" s="28">
+        <v>0</v>
+      </c>
+      <c r="G141" s="28">
+        <v>6</v>
+      </c>
       <c r="H141" s="29"/>
-      <c r="I141" s="29"/>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="I141" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="29"/>
       <c r="B142" s="29"/>
       <c r="C142" s="29"/>
@@ -11491,7 +11780,7 @@
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10">
       <c r="A143" s="29"/>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -11502,7 +11791,7 @@
       <c r="H143" s="29"/>
       <c r="I143" s="29"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10">
       <c r="A144" s="29"/>
       <c r="B144" s="29"/>
       <c r="C144" s="29"/>
